--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\VVSS-BuggyBug\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEC607F-38EC-4212-A1E8-37E32E1CA8CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF7300-89AC-4AD5-835D-59599D56A6BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,6 +742,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -783,26 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1147,7 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1168,19 +1168,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1204,10 +1204,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1222,10 +1222,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1241,19 +1241,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1324,7 +1324,7 @@
       <c r="D13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="23" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1537,19 +1537,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1573,10 +1573,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1591,10 +1591,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="39"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1610,19 +1610,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1816,7 +1816,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1840,7 +1842,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1860,19 +1862,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -1896,10 +1898,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="40"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1914,10 +1916,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="42"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1933,19 +1935,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -2175,7 +2177,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2198,8 +2202,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2220,19 +2224,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>30</v>
@@ -2256,8 +2260,8 @@
       <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -2272,10 +2276,10 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -2291,10 +2295,10 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -2317,52 +2321,52 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="120">
+    <row r="11" spans="1:10" ht="75">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="B13" s="3">
@@ -2372,10 +2376,10 @@
       <c r="C13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F13" s="2"/>
@@ -2385,7 +2389,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2394,7 +2398,7 @@
       <c r="E14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="27" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2562,12 +2566,14 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="19">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\VVSS-BuggyBug\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF7300-89AC-4AD5-835D-59599D56A6BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC9F70-F36E-4A11-A42F-49F430C436B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,6 +821,153 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>316047</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300370D1-90EA-49A4-9E7E-0618E0EF0CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6932125" y="1533525"/>
+          <a:ext cx="7995272" cy="4420552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A94C82D-DF3B-4D5E-9AAE-7E67338451D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562850" y="1756064"/>
+          <a:ext cx="5563887" cy="4236141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401293</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01449BC4-7A13-43DF-92BC-C67A6DCA0966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="1542054"/>
+          <a:ext cx="5125693" cy="4364506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1147,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1507,6 +1654,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1517,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1831,6 +1979,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1841,8 +1990,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2192,6 +2341,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2202,8 +2352,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
